--- a/CHA/qualitycheck/CheckList.xlsx
+++ b/CHA/qualitycheck/CheckList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t>filename</t>
   </si>
@@ -175,22 +175,19 @@
     <t>IN</t>
   </si>
   <si>
+    <t>EXC</t>
+  </si>
+  <si>
     <t>TBD</t>
   </si>
   <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>이거좀 이상한거같음</t>
-  </si>
-  <si>
-    <t>Baekdong_Cha</t>
+    <t>니 논문 쩔더라</t>
   </si>
   <si>
     <t>BC</t>
   </si>
   <si>
-    <t>ㅠㅍ</t>
+    <t>BV</t>
   </si>
 </sst>
 </file>
@@ -584,7 +581,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -595,7 +592,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
@@ -609,7 +606,7 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -617,7 +614,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
@@ -650,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
@@ -661,7 +661,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
@@ -674,11 +674,8 @@
       <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -708,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -721,19 +718,13 @@
       <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -754,9 +745,6 @@
       <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
@@ -765,9 +753,6 @@
       <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
@@ -799,7 +784,7 @@
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -810,7 +795,7 @@
         <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -818,10 +803,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -829,10 +814,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -840,10 +822,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -851,10 +830,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -862,10 +838,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -873,10 +846,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -884,10 +854,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -895,10 +862,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -906,197 +870,143 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="D35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
       </c>
-      <c r="D37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>52</v>
       </c>
-      <c r="D39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>52</v>
       </c>
-      <c r="D40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="D43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
       </c>
-      <c r="D44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="D46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
-      <c r="D47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
